--- a/pred_ohlcv/54_21/2019-11-02 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 LBA ohlcv.xlsx
@@ -1250,7 +1250,7 @@
         <v>-234023.2407010501</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-386657.0152010501</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-258814.9508010501</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-258814.9508010501</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-386849.3977010501</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-376246.7176010502</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>283660.770445052</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>280788.4500450519</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>302864.0856450519</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>332047.1642277523</v>
       </c>
       <c r="H194">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>332047.1642277523</v>
       </c>
       <c r="H195">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>409009.0167450737</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>419443.5784450737</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>419443.5784450737</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>408485.8927450737</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>308834.7273450737</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>308834.7273450737</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>320380.8484450737</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>321064.7234450737</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>320786.2175450737</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>321919.7325450737</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>331806.7364450737</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>322762.7168450737</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>310105.2164450737</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>213197.2219145652</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>267637.7448145652</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>65024.67871456518</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>3578017.927964743</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3892857.956464743</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3144974.512264743</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3212822.037264743</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3176386.582964743</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>2466123.670664744</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3339609.11853953</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3339609.11853953</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3336534.09533953</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3329415.50163953</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3329766.68343953</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3292083.76713953</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3068830.57613953</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3321861.166500976</v>
       </c>
       <c r="H488">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3259220.999800976</v>
       </c>
       <c r="H489">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H491">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3331953.867900976</v>
       </c>
       <c r="H492">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3330953.867900976</v>
       </c>
       <c r="H493">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3287172.954500976</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>3228356.106200976</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>3256700.264900976</v>
       </c>
       <c r="H498">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H500">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2966461.963000976</v>
       </c>
       <c r="H501">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2908556.586600976</v>
       </c>
       <c r="H502">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2630778.985100976</v>
       </c>
       <c r="H503">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-02 LBA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-02 LBA ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>-735867.3427263666</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-234023.2407010501</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-386657.0152010501</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-376246.7176010502</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-68781.27870105018</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-68781.27870105018</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-166285.0769010502</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>302619.4670450519</v>
       </c>
       <c r="H191">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>302619.4670450519</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>308844.7273450737</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>321344.7273450737</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>320380.8484450737</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>166345.8041145652</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>213197.2219145652</v>
       </c>
       <c r="H283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>262758.9313145652</v>
       </c>
       <c r="H285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>267637.7448145652</v>
       </c>
       <c r="H286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>204096.0405145652</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>65024.67871456518</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>70024.67871456518</v>
       </c>
       <c r="H291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>182571.2280145652</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>3578017.927964743</v>
       </c>
       <c r="H434">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>3892857.956464743</v>
       </c>
       <c r="H435">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>3144974.512264743</v>
       </c>
       <c r="H436">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>3212822.037264743</v>
       </c>
       <c r="H437">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>3176386.582964743</v>
       </c>
       <c r="H438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>2466123.670664744</v>
       </c>
       <c r="H439">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>3339609.11853953</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>3339609.11853953</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>3336534.09533953</v>
       </c>
       <c r="H459">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>3329415.50163953</v>
       </c>
       <c r="H460">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>3329766.68343953</v>
       </c>
       <c r="H461">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>3292083.76713953</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>3310387.02553953</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>3068830.57613953</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>3100817.69613953</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>3353860.233111007</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>3554036.292800976</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>3321861.166500976</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>3259220.999800976</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>3282423.386500976</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>3331953.867900976</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>3330953.867900976</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>3287172.954500976</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>3287191.136300976</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>3228356.106200976</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>3256700.264900976</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>3163270.369500976</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>2966461.963000976</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>2908556.586600976</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>2630778.985100976</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>2709369.437300976</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>2689690.146200976</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>2686134.510400976</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:8">
